--- a/Electronics/PCBPerformanceCharacterization.xlsx
+++ b/Electronics/PCBPerformanceCharacterization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\Anima-EEG\Electronics\Active Electrode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\Anima-EEG\Electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>PCB #</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Clipping to (Hz, exclusive)</t>
+  </si>
+  <si>
+    <t>vX.1 - with filled in via</t>
+  </si>
+  <si>
+    <t>vX.0 - withoutfilled in via</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,7 +425,7 @@
     <col min="1" max="1" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,13 +433,22 @@
         <v>1</v>
       </c>
       <c r="C1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
+        <v>2.1</v>
+      </c>
+      <c r="F1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -441,16 +456,22 @@
         <v>6.5</v>
       </c>
       <c r="C2">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D2">
         <v>6.9</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>6.9</v>
+      </c>
+      <c r="F2">
+        <v>6.3</v>
+      </c>
+      <c r="G2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -458,16 +479,22 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -475,13 +502,22 @@
         <v>1.26</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="D5">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1.31</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -489,13 +525,22 @@
         <v>-50.64</v>
       </c>
       <c r="C6">
-        <v>-71.510000000000005</v>
+        <v>-54.42</v>
       </c>
       <c r="D6">
         <v>-45.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>-47.39</v>
+      </c>
+      <c r="F6">
+        <v>-71.510000000000005</v>
+      </c>
+      <c r="G6">
+        <v>-72.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -503,13 +548,22 @@
         <v>524</v>
       </c>
       <c r="C7">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="D7">
         <v>549</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>549</v>
+      </c>
+      <c r="F7">
+        <v>445</v>
+      </c>
+      <c r="G7">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -517,13 +571,22 @@
         <v>55</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -531,13 +594,22 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -545,10 +617,39 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>43</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
